--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_24_1.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_24_1.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2614551.715910728</v>
+        <v>-2617460.663982093</v>
       </c>
     </row>
     <row r="7">
@@ -659,10 +659,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>39.70122005611979</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,16 +704,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>77.08171901666378</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>116.8405921356977</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>187.5255871663198</v>
+        <v>187.52558716632</v>
       </c>
       <c r="Y2" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,13 +735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -753,10 +753,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>58.9045589040915</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,13 +786,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>104.411301427036</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -801,10 +801,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>165.0157242638256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -835,10 +835,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>52.21594625443431</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>52.21594625443443</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>132.601800229928</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>283.3317522683426</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -908,13 +908,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>12.58659989534474</v>
+        <v>12.58659989534475</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>105.7619939834399</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>44.96795805497888</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -956,10 +956,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>335.2544961588356</v>
+        <v>335.2544961588334</v>
       </c>
       <c r="X5" t="n">
-        <v>335.2544961588356</v>
+        <v>335.2544961588334</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -981,10 +981,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1020,22 +1020,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>36.02606921516006</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>35.95762455759769</v>
+        <v>194.3070640244811</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8457727555612</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>208.7512890664487</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>62.31732641987662</v>
       </c>
     </row>
     <row r="8">
@@ -1130,19 +1130,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>11.87073484362677</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>63.41404672745941</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>208.0722578696039</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>226.4341290878622</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1209,10 +1209,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -1224,13 +1224,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.5072338470353</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>94.50081326185514</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>36.29946757904886</v>
+        <v>20.27697994470624</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>93.21114789494968</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1291,16 +1291,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>9.08577402551251</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>18.15430933923925</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>22.59469128425556</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1342,13 +1342,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>201.8589963344137</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1528,16 +1528,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>2.268486125805721</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1582,7 +1582,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,10 +1765,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>27.0291980517616</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1777,13 +1777,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1904,7 +1904,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2005,22 +2005,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>32.47207866589269</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>102.5859514748438</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,7 +2056,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2087,7 +2087,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2239,25 +2239,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>124.5931157466106</v>
       </c>
       <c r="D22" t="n">
-        <v>80.08971311158706</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2315,16 +2315,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2333,7 +2333,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,16 +2366,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695523</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2384,7 +2384,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2479,7 +2479,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2488,10 +2488,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>27.02919805176115</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>78.89395497654104</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2618,7 +2618,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2710,13 +2710,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C28" t="n">
         <v>142.9621736065881</v>
       </c>
       <c r="D28" t="n">
-        <v>124.3308255261734</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E28" t="n">
         <v>122.1493151545294</v>
@@ -2731,7 +2731,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652577</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808293</v>
       </c>
       <c r="S28" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T28" t="n">
         <v>193.1208028352485</v>
@@ -2770,16 +2770,16 @@
         <v>261.8998268972044</v>
       </c>
       <c r="V28" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W28" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X28" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y28" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="29">
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C31" t="n">
         <v>142.9621736065881</v>
@@ -2968,7 +2968,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652577</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808293</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S31" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096056</v>
       </c>
       <c r="T31" t="n">
         <v>193.1208028352485</v>
@@ -3007,16 +3007,16 @@
         <v>261.8998268972044</v>
       </c>
       <c r="V31" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X31" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y31" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="32">
@@ -3080,7 +3080,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3092,7 +3092,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C34" t="n">
         <v>142.9621736065881</v>
@@ -3205,7 +3205,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808158</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T34" t="n">
         <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972048</v>
+        <v>261.8998268972046</v>
       </c>
       <c r="V34" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X34" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y34" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="35">
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3320,7 +3320,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C37" t="n">
         <v>142.9621736065881</v>
@@ -3430,7 +3430,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808203</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972039</v>
+        <v>261.8998268972055</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X37" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="38">
@@ -3557,7 +3557,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3569,7 +3569,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="39">
@@ -3661,25 +3661,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E40" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H40" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652564</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808198</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3737,10 +3737,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3898,10 +3898,10 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
         <v>122.1493151545295</v>
@@ -3910,13 +3910,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541838</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808203</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3952,7 +3952,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972039</v>
+        <v>261.8998268972046</v>
       </c>
       <c r="V43" t="n">
         <v>227.8529958317883</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -3992,7 +3992,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4043,7 +4043,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="45">
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652575</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,16 +4180,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972048</v>
       </c>
       <c r="V46" t="n">
         <v>227.8529958317883</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>371.26277863231</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="C2" t="n">
-        <v>331.1605361513809</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D2" t="n">
-        <v>141.7407511348962</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E2" t="n">
-        <v>141.7407511348962</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F2" t="n">
-        <v>141.7407511348962</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G2" t="n">
-        <v>141.7407511348962</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H2" t="n">
-        <v>141.7407511348962</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678512</v>
+        <v>21.03371160678535</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058984</v>
+        <v>80.81213159058962</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079186</v>
+        <v>191.8743094079189</v>
       </c>
       <c r="M2" t="n">
         <v>347.1218190644756</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123828</v>
+        <v>509.495204112383</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985582</v>
+        <v>649.4845259985584</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020263</v>
+        <v>734.4611726020266</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652794</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652794</v>
+        <v>672.2420264262255</v>
       </c>
       <c r="S2" t="n">
-        <v>750.1023486652794</v>
+        <v>511.8624171433436</v>
       </c>
       <c r="T2" t="n">
-        <v>750.1023486652794</v>
+        <v>393.8416170062752</v>
       </c>
       <c r="U2" t="n">
-        <v>750.1023486652794</v>
+        <v>204.4218319897904</v>
       </c>
       <c r="V2" t="n">
-        <v>750.1023486652794</v>
+        <v>204.4218319897904</v>
       </c>
       <c r="W2" t="n">
-        <v>750.1023486652794</v>
+        <v>204.4218319897904</v>
       </c>
       <c r="X2" t="n">
-        <v>560.6825636487947</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="Y2" t="n">
-        <v>371.26277863231</v>
+        <v>15.0020469733056</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>74.50160142188287</v>
+        <v>265.7968175949</v>
       </c>
       <c r="C3" t="n">
-        <v>74.50160142188287</v>
+        <v>265.7968175949</v>
       </c>
       <c r="D3" t="n">
-        <v>74.50160142188287</v>
+        <v>116.8624079336487</v>
       </c>
       <c r="E3" t="n">
-        <v>74.50160142188287</v>
+        <v>116.8624079336487</v>
       </c>
       <c r="F3" t="n">
-        <v>74.50160142188287</v>
+        <v>116.8624079336487</v>
       </c>
       <c r="G3" t="n">
-        <v>74.50160142188287</v>
+        <v>116.8624079336487</v>
       </c>
       <c r="H3" t="n">
-        <v>74.50160142188287</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024196</v>
+        <v>67.13418877024219</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772647</v>
+        <v>183.5548280772651</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140242</v>
+        <v>338.7690911140246</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546599</v>
+        <v>512.5000587546604</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476345</v>
+        <v>649.2101578476349</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017059</v>
+        <v>739.5989987017064</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652794</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652794</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="S3" t="n">
-        <v>598.8192732198756</v>
+        <v>644.6363876278697</v>
       </c>
       <c r="T3" t="n">
-        <v>598.8192732198756</v>
+        <v>455.2166026113848</v>
       </c>
       <c r="U3" t="n">
-        <v>598.8192732198756</v>
+        <v>265.7968175949</v>
       </c>
       <c r="V3" t="n">
-        <v>598.8192732198756</v>
+        <v>265.7968175949</v>
       </c>
       <c r="W3" t="n">
-        <v>598.8192732198756</v>
+        <v>265.7968175949</v>
       </c>
       <c r="X3" t="n">
-        <v>409.3994882033909</v>
+        <v>265.7968175949</v>
       </c>
       <c r="Y3" t="n">
-        <v>242.7169384419509</v>
+        <v>265.7968175949</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>67.74542702828974</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="C4" t="n">
-        <v>67.74542702828974</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="D4" t="n">
-        <v>67.74542702828974</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="E4" t="n">
-        <v>67.74542702828974</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="F4" t="n">
-        <v>67.74542702828974</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="G4" t="n">
-        <v>67.74542702828974</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="H4" t="n">
-        <v>67.74542702828974</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="I4" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230172</v>
+        <v>27.03967056230176</v>
       </c>
       <c r="M4" t="n">
-        <v>42.9899398517071</v>
+        <v>42.98993985170716</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396325</v>
+        <v>66.41847329396334</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702828974</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="P4" t="n">
-        <v>67.74542702828974</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.74542702828974</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="R4" t="n">
-        <v>67.74542702828974</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="S4" t="n">
-        <v>67.74542702828974</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="T4" t="n">
-        <v>67.74542702828974</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="U4" t="n">
-        <v>67.74542702828974</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="V4" t="n">
-        <v>67.74542702828974</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="W4" t="n">
-        <v>67.74542702828974</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="X4" t="n">
-        <v>67.74542702828974</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="Y4" t="n">
-        <v>67.74542702828974</v>
+        <v>67.74542702828987</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>153.3098946629049</v>
+        <v>332.6732868698772</v>
       </c>
       <c r="C5" t="n">
-        <v>153.3098946629049</v>
+        <v>46.47959770993513</v>
       </c>
       <c r="D5" t="n">
-        <v>153.3098946629049</v>
+        <v>46.47959770993513</v>
       </c>
       <c r="E5" t="n">
-        <v>153.3098946629049</v>
+        <v>46.47959770993513</v>
       </c>
       <c r="F5" t="n">
-        <v>146.3643939137014</v>
+        <v>39.53409696073167</v>
       </c>
       <c r="G5" t="n">
-        <v>133.6506566456764</v>
+        <v>26.82035969270667</v>
       </c>
       <c r="H5" t="n">
-        <v>133.6506566456764</v>
+        <v>26.82035969270667</v>
       </c>
       <c r="I5" t="n">
-        <v>26.82035969270685</v>
+        <v>26.82035969270667</v>
       </c>
       <c r="J5" t="n">
-        <v>75.80841166588868</v>
+        <v>75.80841166588795</v>
       </c>
       <c r="K5" t="n">
-        <v>199.9673209772259</v>
+        <v>199.9673209772242</v>
       </c>
       <c r="L5" t="n">
-        <v>390.8991887176475</v>
+        <v>390.8991887176445</v>
       </c>
       <c r="M5" t="n">
-        <v>635.0171176553431</v>
+        <v>635.0171176553388</v>
       </c>
       <c r="N5" t="n">
-        <v>887.6989382795207</v>
+        <v>887.698938279515</v>
       </c>
       <c r="O5" t="n">
-        <v>1112.963955034631</v>
+        <v>1112.963955034624</v>
       </c>
       <c r="P5" t="n">
-        <v>1270.721434285808</v>
+        <v>1270.7214342858</v>
       </c>
       <c r="Q5" t="n">
-        <v>1341.017984635342</v>
+        <v>1341.017984635334</v>
       </c>
       <c r="R5" t="n">
-        <v>1295.595804781828</v>
+        <v>1341.017984635334</v>
       </c>
       <c r="S5" t="n">
-        <v>1295.595804781828</v>
+        <v>1341.017984635334</v>
       </c>
       <c r="T5" t="n">
-        <v>1295.595804781828</v>
+        <v>1341.017984635334</v>
       </c>
       <c r="U5" t="n">
-        <v>1295.595804781828</v>
+        <v>1341.017984635334</v>
       </c>
       <c r="V5" t="n">
-        <v>964.5329174382576</v>
+        <v>1009.955097291763</v>
       </c>
       <c r="W5" t="n">
-        <v>625.8920122273125</v>
+        <v>671.31419208082</v>
       </c>
       <c r="X5" t="n">
-        <v>287.2511070163675</v>
+        <v>332.6732868698772</v>
       </c>
       <c r="Y5" t="n">
-        <v>287.2511070163675</v>
+        <v>332.6732868698772</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>496.7423566082001</v>
+        <v>509.4452536405404</v>
       </c>
       <c r="C6" t="n">
-        <v>322.2893273270731</v>
+        <v>334.9922243594134</v>
       </c>
       <c r="D6" t="n">
-        <v>173.3549176658219</v>
+        <v>186.0578146981622</v>
       </c>
       <c r="E6" t="n">
-        <v>173.3549176658219</v>
+        <v>26.82035969270667</v>
       </c>
       <c r="F6" t="n">
-        <v>26.82035969270685</v>
+        <v>26.82035969270667</v>
       </c>
       <c r="G6" t="n">
-        <v>26.82035969270685</v>
+        <v>26.82035969270667</v>
       </c>
       <c r="H6" t="n">
-        <v>26.82035969270685</v>
+        <v>26.82035969270667</v>
       </c>
       <c r="I6" t="n">
-        <v>26.82035969270685</v>
+        <v>26.82035969270667</v>
       </c>
       <c r="J6" t="n">
-        <v>37.17946088918791</v>
+        <v>37.17946088918734</v>
       </c>
       <c r="K6" t="n">
-        <v>133.0396395322613</v>
+        <v>133.03963953226</v>
       </c>
       <c r="L6" t="n">
-        <v>308.2580207538345</v>
+        <v>308.2580207538324</v>
       </c>
       <c r="M6" t="n">
-        <v>532.0864752945548</v>
+        <v>532.0864752945516</v>
       </c>
       <c r="N6" t="n">
-        <v>776.2476479203624</v>
+        <v>776.2476479203581</v>
       </c>
       <c r="O6" t="n">
-        <v>977.3876249173593</v>
+        <v>977.3876249173538</v>
       </c>
       <c r="P6" t="n">
-        <v>1119.487123027782</v>
+        <v>1119.487123027776</v>
       </c>
       <c r="Q6" t="n">
-        <v>1164.557677933909</v>
+        <v>1164.557677933902</v>
       </c>
       <c r="R6" t="n">
-        <v>1164.557677933909</v>
+        <v>1128.1677090297</v>
       </c>
       <c r="S6" t="n">
-        <v>1164.557677933909</v>
+        <v>1128.1677090297</v>
       </c>
       <c r="T6" t="n">
-        <v>1128.236845047446</v>
+        <v>931.8979473888101</v>
       </c>
       <c r="U6" t="n">
-        <v>900.1098018600107</v>
+        <v>931.8979473888101</v>
       </c>
       <c r="V6" t="n">
-        <v>664.9576936282681</v>
+        <v>931.8979473888101</v>
       </c>
       <c r="W6" t="n">
-        <v>664.9576936282681</v>
+        <v>677.6605906606085</v>
       </c>
       <c r="X6" t="n">
-        <v>664.9576936282681</v>
+        <v>677.6605906606085</v>
       </c>
       <c r="Y6" t="n">
-        <v>664.9576936282681</v>
+        <v>677.6605906606085</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>26.82035969270685</v>
+        <v>174.7334532750998</v>
       </c>
       <c r="C7" t="n">
-        <v>26.82035969270685</v>
+        <v>174.7334532750998</v>
       </c>
       <c r="D7" t="n">
-        <v>26.82035969270685</v>
+        <v>174.7334532750998</v>
       </c>
       <c r="E7" t="n">
-        <v>26.82035969270685</v>
+        <v>26.82035969270667</v>
       </c>
       <c r="F7" t="n">
-        <v>26.82035969270685</v>
+        <v>26.82035969270667</v>
       </c>
       <c r="G7" t="n">
-        <v>26.82035969270685</v>
+        <v>26.82035969270667</v>
       </c>
       <c r="H7" t="n">
-        <v>26.82035969270685</v>
+        <v>26.82035969270667</v>
       </c>
       <c r="I7" t="n">
-        <v>26.82035969270685</v>
+        <v>26.82035969270667</v>
       </c>
       <c r="J7" t="n">
-        <v>26.82035969270685</v>
+        <v>26.82035969270667</v>
       </c>
       <c r="K7" t="n">
-        <v>39.23367185447284</v>
+        <v>39.23367185447226</v>
       </c>
       <c r="L7" t="n">
-        <v>85.02423536994743</v>
+        <v>85.02423536994633</v>
       </c>
       <c r="M7" t="n">
-        <v>136.5622473004356</v>
+        <v>136.5622473004339</v>
       </c>
       <c r="N7" t="n">
-        <v>194.7323264062855</v>
+        <v>194.7323264062833</v>
       </c>
       <c r="O7" t="n">
-        <v>228.148720643051</v>
+        <v>228.1487206430483</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6802476386146</v>
+        <v>237.6802476386115</v>
       </c>
       <c r="Q7" t="n">
-        <v>237.6802476386146</v>
+        <v>237.6802476386115</v>
       </c>
       <c r="R7" t="n">
-        <v>237.6802476386146</v>
+        <v>237.6802476386115</v>
       </c>
       <c r="S7" t="n">
-        <v>237.6802476386146</v>
+        <v>237.6802476386115</v>
       </c>
       <c r="T7" t="n">
-        <v>237.6802476386146</v>
+        <v>237.6802476386115</v>
       </c>
       <c r="U7" t="n">
-        <v>237.6802476386146</v>
+        <v>237.6802476386115</v>
       </c>
       <c r="V7" t="n">
-        <v>237.6802476386146</v>
+        <v>237.6802476386115</v>
       </c>
       <c r="W7" t="n">
-        <v>26.82035969270685</v>
+        <v>237.6802476386115</v>
       </c>
       <c r="X7" t="n">
-        <v>26.82035969270685</v>
+        <v>237.6802476386115</v>
       </c>
       <c r="Y7" t="n">
-        <v>26.82035969270685</v>
+        <v>174.7334532750998</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1210.399693788884</v>
+        <v>789.5335540906474</v>
       </c>
       <c r="C8" t="n">
-        <v>1210.399693788884</v>
+        <v>420.5710371502357</v>
       </c>
       <c r="D8" t="n">
-        <v>852.1339951821335</v>
+        <v>62.30533854348519</v>
       </c>
       <c r="E8" t="n">
-        <v>466.3457425838893</v>
+        <v>62.30533854348519</v>
       </c>
       <c r="F8" t="n">
         <v>55.35983779428172</v>
@@ -4808,7 +4808,7 @@
         <v>366.8168396232717</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711865</v>
+        <v>669.5878927711874</v>
       </c>
       <c r="M8" t="n">
         <v>1038.14846457873</v>
@@ -4829,25 +4829,25 @@
         <v>2168.459826904653</v>
       </c>
       <c r="S8" t="n">
-        <v>2104.405234250653</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="T8" t="n">
-        <v>1894.231236402569</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="U8" t="n">
-        <v>1894.231236402569</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="V8" t="n">
-        <v>1563.168349058998</v>
+        <v>1939.738484391661</v>
       </c>
       <c r="W8" t="n">
-        <v>1210.399693788884</v>
+        <v>1939.738484391661</v>
       </c>
       <c r="X8" t="n">
-        <v>1210.399693788884</v>
+        <v>1566.272726130581</v>
       </c>
       <c r="Y8" t="n">
-        <v>1210.399693788884</v>
+        <v>1176.133394154769</v>
       </c>
     </row>
     <row r="9">
@@ -4857,40 +4857,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>767.0731087616919</v>
+        <v>693.0104463829875</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0731087616919</v>
+        <v>518.5574171018606</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1386991004406</v>
+        <v>369.6230074406093</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9012440949851</v>
+        <v>210.3855524351538</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3666861218701</v>
+        <v>63.85099446203876</v>
       </c>
       <c r="G9" t="n">
-        <v>175.490692336986</v>
+        <v>63.85099446203876</v>
       </c>
       <c r="H9" t="n">
-        <v>80.03532540581918</v>
+        <v>63.85099446203876</v>
       </c>
       <c r="I9" t="n">
         <v>43.36919653809306</v>
       </c>
       <c r="J9" t="n">
-        <v>89.55356510562314</v>
+        <v>89.55356510562316</v>
       </c>
       <c r="K9" t="n">
         <v>246.6448318504519</v>
       </c>
       <c r="L9" t="n">
-        <v>504.1959674104394</v>
+        <v>504.1959674104395</v>
       </c>
       <c r="M9" t="n">
-        <v>824.1028628789486</v>
+        <v>824.1028628789488</v>
       </c>
       <c r="N9" t="n">
         <v>1166.88538687358</v>
@@ -4899,34 +4899,34 @@
         <v>1458.244633128146</v>
       </c>
       <c r="P9" t="n">
-        <v>1672.753048689046</v>
+        <v>1672.753048689047</v>
       </c>
       <c r="Q9" t="n">
-        <v>1766.227047333486</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="R9" t="n">
-        <v>1766.227047333486</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="S9" t="n">
-        <v>1766.227047333486</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="T9" t="n">
-        <v>1766.227047333486</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="U9" t="n">
-        <v>1672.074372692123</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="V9" t="n">
-        <v>1436.92226446038</v>
+        <v>1531.074939101744</v>
       </c>
       <c r="W9" t="n">
-        <v>1182.684907732179</v>
+        <v>1276.837582373542</v>
       </c>
       <c r="X9" t="n">
-        <v>974.8334075266457</v>
+        <v>1068.986082168009</v>
       </c>
       <c r="Y9" t="n">
-        <v>767.0731087616919</v>
+        <v>861.2257834030556</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>497.4664265514519</v>
+        <v>61.70688273934482</v>
       </c>
       <c r="C10" t="n">
-        <v>488.2888770307322</v>
+        <v>61.70688273934482</v>
       </c>
       <c r="D10" t="n">
-        <v>338.1722376183965</v>
+        <v>61.70688273934482</v>
       </c>
       <c r="E10" t="n">
-        <v>190.2591440360034</v>
+        <v>61.70688273934482</v>
       </c>
       <c r="F10" t="n">
-        <v>43.36919653809306</v>
+        <v>61.70688273934482</v>
       </c>
       <c r="G10" t="n">
-        <v>43.36919653809306</v>
+        <v>61.70688273934482</v>
       </c>
       <c r="H10" t="n">
-        <v>43.36919653809306</v>
+        <v>61.70688273934482</v>
       </c>
       <c r="I10" t="n">
-        <v>43.36919653809306</v>
+        <v>61.70688273934482</v>
       </c>
       <c r="J10" t="n">
         <v>43.36919653809306</v>
       </c>
       <c r="K10" t="n">
-        <v>92.71685897981519</v>
+        <v>92.71685897981521</v>
       </c>
       <c r="L10" t="n">
         <v>185.7706748018941</v>
       </c>
       <c r="M10" t="n">
-        <v>287.1411594927331</v>
+        <v>287.1411594927332</v>
       </c>
       <c r="N10" t="n">
-        <v>393.9588065377459</v>
+        <v>393.9588065377461</v>
       </c>
       <c r="O10" t="n">
-        <v>472.3091036033657</v>
+        <v>472.3091036033659</v>
       </c>
       <c r="P10" t="n">
-        <v>520.289347040599</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="Q10" t="n">
-        <v>497.4664265514519</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="R10" t="n">
-        <v>497.4664265514519</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="S10" t="n">
-        <v>497.4664265514519</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="T10" t="n">
-        <v>497.4664265514519</v>
+        <v>316.3913709452317</v>
       </c>
       <c r="U10" t="n">
-        <v>497.4664265514519</v>
+        <v>316.3913709452317</v>
       </c>
       <c r="V10" t="n">
-        <v>497.4664265514519</v>
+        <v>61.70688273934482</v>
       </c>
       <c r="W10" t="n">
-        <v>497.4664265514519</v>
+        <v>61.70688273934482</v>
       </c>
       <c r="X10" t="n">
-        <v>497.4664265514519</v>
+        <v>61.70688273934482</v>
       </c>
       <c r="Y10" t="n">
-        <v>497.4664265514519</v>
+        <v>61.70688273934482</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5033,55 +5033,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,10 +5112,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5127,13 +5127,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>802.9288273958739</v>
       </c>
       <c r="C13" t="n">
-        <v>484.8112968429803</v>
+        <v>633.992644467967</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1205.369871369644</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>984.5772922261136</v>
       </c>
     </row>
     <row r="14">
@@ -5270,16 +5270,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5291,34 +5291,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W14" t="n">
         <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5495,67 +5495,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,10 +5586,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
@@ -5604,10 +5604,10 @@
         <v>1268.578514636218</v>
       </c>
       <c r="N18" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P18" t="n">
         <v>2319.799627685893</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>762.5477693179085</v>
+        <v>984.5772922261136</v>
       </c>
       <c r="C19" t="n">
-        <v>593.6115863900017</v>
+        <v>815.6411092982067</v>
       </c>
       <c r="D19" t="n">
-        <v>593.6115863900017</v>
+        <v>665.524469885871</v>
       </c>
       <c r="E19" t="n">
-        <v>593.6115863900017</v>
+        <v>517.6113763034779</v>
       </c>
       <c r="F19" t="n">
-        <v>446.7216388920913</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>279.5255396069712</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>1205.369871369644</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179085</v>
+        <v>984.5772922261136</v>
       </c>
     </row>
     <row r="20">
@@ -5732,7 +5732,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
@@ -5744,55 +5744,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>734.6461798836013</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="C22" t="n">
-        <v>565.7099969556945</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y22" t="n">
-        <v>916.2946447138411</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="23">
@@ -5969,40 +5969,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6014,10 +6014,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
         <v>4151.812499466573</v>
@@ -6060,31 +6060,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1072.713683962606</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N24" t="n">
-        <v>1700.311647517212</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>662.1522880254209</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6187,10 +6187,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1064.593331999191</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>843.8007528556607</v>
       </c>
     </row>
     <row r="26">
@@ -6206,13 +6206,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6221,13 +6221,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6266,7 +6266,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6300,28 +6300,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.957531531933</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656824</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G28" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H28" t="n">
         <v>151.373419438402</v>
@@ -6406,25 +6406,25 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R28" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S28" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T28" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U28" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W28" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X28" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y28" t="n">
         <v>1084.076049400516</v>
@@ -6458,16 +6458,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014779</v>
@@ -6537,28 +6537,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969308</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H31" t="n">
         <v>151.373419438402</v>
@@ -6643,7 +6643,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S31" t="n">
         <v>2438.456847547834</v>
@@ -6701,16 +6701,16 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6734,10 +6734,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
         <v>3094.515198591809</v>
@@ -6774,28 +6774,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1700.311647517212</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,13 +6832,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E34" t="n">
         <v>533.5814564942654</v>
@@ -6856,10 +6856,10 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K34" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L34" t="n">
         <v>898.2659412311324</v>
@@ -6880,16 +6880,16 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V34" t="n">
         <v>1748.685508594055</v>
@@ -6898,7 +6898,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y34" t="n">
         <v>1084.076049400516</v>
@@ -6917,13 +6917,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6938,16 +6938,16 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7011,28 +7011,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,73 +7069,73 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319329</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656823</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580118</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N37" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
         <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y37" t="n">
         <v>1084.076049400516</v>
@@ -7172,13 +7172,13 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014779</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656817</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345474</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384018</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
         <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7351,7 +7351,7 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R40" t="n">
         <v>2596.781734931273</v>
@@ -7366,7 +7366,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W40" t="n">
         <v>1483.798285518751</v>
@@ -7403,55 +7403,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192741</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111729</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,25 +7482,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637306</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M42" t="n">
-        <v>1186.520756890282</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>1814.118720444889</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O42" t="n">
         <v>1859.536823237711</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380727</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311322</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7585,19 +7585,19 @@
         <v>2179.340199382518</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973195</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
         <v>1978.840049838286</v>
@@ -7628,16 +7628,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1231.938859683105</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N45" t="n">
-        <v>1859.536823237711</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7786,19 +7786,19 @@
         <v>782.5512955656816</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H46" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7828,10 +7828,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -22547,25 +22547,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>325.5716717148878</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>167.1574544543631</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.097833230058</v>
+        <v>309.8567738617886</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22598,22 +22598,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>96.6032889205091</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1692605650303</v>
+        <v>63.64367339871038</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>86.3200235526586</v>
+        <v>182.2055135121491</v>
       </c>
       <c r="Y2" t="n">
-        <v>198.7123514897337</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22677,7 +22677,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>7.884010625681299</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -22692,7 +22692,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22702,19 +22702,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -22723,13 +22723,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>4.854053373819752</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22744,13 +22744,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>18.10760906709386</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -22762,13 +22762,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23416,16 +23416,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>146.3469868924066</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23653,10 +23653,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>121.5862749664508</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23665,13 +23665,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23893,19 +23893,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>112.9489693570385</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>37.70876137138008</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24127,22 +24127,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>42.65370535201728</v>
       </c>
       <c r="D22" t="n">
-        <v>68.5257599066253</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24367,7 +24367,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24376,10 +24376,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>146.8157004124961</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -26314,10 +26314,10 @@
         <v>16230.4555807183</v>
       </c>
       <c r="C2" t="n">
-        <v>20526.04424660709</v>
+        <v>20526.0442466071</v>
       </c>
       <c r="D2" t="n">
-        <v>20526.04424660707</v>
+        <v>20526.04424660708</v>
       </c>
       <c r="E2" t="n">
         <v>20178.66499225016</v>
@@ -26329,10 +26329,10 @@
         <v>20178.66499225015</v>
       </c>
       <c r="H2" t="n">
-        <v>20178.66499225016</v>
+        <v>20178.66499225015</v>
       </c>
       <c r="I2" t="n">
-        <v>20178.66499225016</v>
+        <v>20178.66499225015</v>
       </c>
       <c r="J2" t="n">
         <v>20526.04424660709</v>
@@ -26341,16 +26341,16 @@
         <v>20526.04424660709</v>
       </c>
       <c r="L2" t="n">
-        <v>20526.0442466071</v>
+        <v>20526.04424660708</v>
       </c>
       <c r="M2" t="n">
-        <v>20526.0442466071</v>
+        <v>20526.04424660709</v>
       </c>
       <c r="N2" t="n">
         <v>20526.04424660709</v>
       </c>
       <c r="O2" t="n">
-        <v>20526.04424660708</v>
+        <v>20526.04424660709</v>
       </c>
       <c r="P2" t="n">
         <v>20526.04424660709</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208453</v>
+        <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>163527.4916130752</v>
+        <v>163527.4916130726</v>
       </c>
       <c r="D3" t="n">
-        <v>216759.9319010237</v>
+        <v>216759.9319010262</v>
       </c>
       <c r="E3" t="n">
-        <v>601443.2075742653</v>
+        <v>601443.2075742654</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,25 +26384,25 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>5.145141455743993e-11</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68492.66272217638</v>
+        <v>68492.66272217642</v>
       </c>
       <c r="K3" t="n">
-        <v>38020.6938495858</v>
+        <v>38020.6938495852</v>
       </c>
       <c r="L3" t="n">
-        <v>52354.52082544551</v>
+        <v>52354.52082544607</v>
       </c>
       <c r="M3" t="n">
-        <v>157146.380551598</v>
+        <v>157146.3805515981</v>
       </c>
       <c r="N3" t="n">
-        <v>5.429358550048033e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19427.71799363172</v>
+        <v>19427.71799363183</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26418,7 +26418,7 @@
         <v>180465.3416072034</v>
       </c>
       <c r="C4" t="n">
-        <v>235058.4539805403</v>
+        <v>235058.453980541</v>
       </c>
       <c r="D4" t="n">
         <v>174202.9900888977</v>
@@ -26427,16 +26427,16 @@
         <v>15436.64000687967</v>
       </c>
       <c r="F4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="G4" t="n">
+        <v>15436.64000687964</v>
+      </c>
+      <c r="H4" t="n">
+        <v>15436.64000687964</v>
+      </c>
+      <c r="I4" t="n">
         <v>15436.64000687969</v>
-      </c>
-      <c r="H4" t="n">
-        <v>15436.64000687966</v>
-      </c>
-      <c r="I4" t="n">
-        <v>15436.64000687971</v>
       </c>
       <c r="J4" t="n">
         <v>23427.49926997316</v>
@@ -26445,19 +26445,19 @@
         <v>23427.49926997314</v>
       </c>
       <c r="L4" t="n">
+        <v>23427.49926997316</v>
+      </c>
+      <c r="M4" t="n">
+        <v>23427.49926997317</v>
+      </c>
+      <c r="N4" t="n">
         <v>23427.49926997314</v>
       </c>
-      <c r="M4" t="n">
-        <v>23427.49926997313</v>
-      </c>
-      <c r="N4" t="n">
-        <v>23427.49926997313</v>
-      </c>
       <c r="O4" t="n">
-        <v>23427.49926997314</v>
+        <v>23427.49926997311</v>
       </c>
       <c r="P4" t="n">
-        <v>23427.49926997316</v>
+        <v>23427.49926997315</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161356</v>
+        <v>56985.80041161358</v>
       </c>
       <c r="C5" t="n">
-        <v>68740.00864417512</v>
+        <v>68740.00864417494</v>
       </c>
       <c r="D5" t="n">
         <v>85199.08185587224</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-812577.5889589438</v>
+        <v>-813007.1478255328</v>
       </c>
       <c r="C6" t="n">
-        <v>-446799.9099911836</v>
+        <v>-446799.9099911815</v>
       </c>
       <c r="D6" t="n">
-        <v>-455635.9595991866</v>
+        <v>-455635.9595991891</v>
       </c>
       <c r="E6" t="n">
-        <v>-697823.7124128019</v>
+        <v>-697858.4503382377</v>
       </c>
       <c r="F6" t="n">
-        <v>-96380.50483853661</v>
+        <v>-96415.24276397232</v>
       </c>
       <c r="G6" t="n">
-        <v>-96380.50483853665</v>
+        <v>-96415.2427639723</v>
       </c>
       <c r="H6" t="n">
-        <v>-96380.50483853662</v>
+        <v>-96415.24276397233</v>
       </c>
       <c r="I6" t="n">
-        <v>-96380.5048385367</v>
+        <v>-96415.24276397235</v>
       </c>
       <c r="J6" t="n">
-        <v>-174558.2335994578</v>
+        <v>-174558.2335994579</v>
       </c>
       <c r="K6" t="n">
-        <v>-144086.2647268673</v>
+        <v>-144086.2647268666</v>
       </c>
       <c r="L6" t="n">
-        <v>-158420.091702727</v>
+        <v>-158420.0917027275</v>
       </c>
       <c r="M6" t="n">
         <v>-263211.9514288795</v>
       </c>
       <c r="N6" t="n">
-        <v>-106065.5708772815</v>
+        <v>-106065.5708772814</v>
       </c>
       <c r="O6" t="n">
-        <v>-125493.2888709132</v>
+        <v>-125493.2888709133</v>
       </c>
       <c r="P6" t="n">
         <v>-106065.5708772815</v>
@@ -26704,28 +26704,28 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M2" t="n">
+        <v>24.28464749203976</v>
+      </c>
+      <c r="N2" t="n">
+        <v>24.28464749203969</v>
+      </c>
+      <c r="O2" t="n">
+        <v>24.28464749203972</v>
+      </c>
+      <c r="P2" t="n">
         <v>24.28464749203971</v>
-      </c>
-      <c r="N2" t="n">
-        <v>24.28464749203971</v>
-      </c>
-      <c r="O2" t="n">
-        <v>24.28464749203969</v>
-      </c>
-      <c r="P2" t="n">
-        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129045</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>675.6392329228403</v>
+        <v>675.6392329228383</v>
       </c>
       <c r="D3" t="n">
-        <v>853.710664537684</v>
+        <v>853.7106645376841</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,25 +26787,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>335.2544961588356</v>
+        <v>335.2544961588334</v>
       </c>
       <c r="D4" t="n">
         <v>542.1149567261632</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26826,7 +26826,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26926,10 +26926,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26941,10 +26941,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>6.786698187560041e-14</v>
+        <v>-6.750155989720952e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129045</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>127.1692920099358</v>
+        <v>127.1692920099338</v>
       </c>
       <c r="D3" t="n">
-        <v>178.0714316148437</v>
+        <v>178.0714316148458</v>
       </c>
       <c r="E3" t="n">
-        <v>514.2648358039897</v>
+        <v>514.2648358039899</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>147.7289089925158</v>
+        <v>147.7289089925135</v>
       </c>
       <c r="D4" t="n">
-        <v>206.8604605673276</v>
+        <v>206.8604605673298</v>
       </c>
       <c r="E4" t="n">
-        <v>630.5933313734852</v>
+        <v>630.5933313734854</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.52558716632</v>
       </c>
       <c r="K4" t="n">
-        <v>147.7289089925158</v>
+        <v>147.7289089925135</v>
       </c>
       <c r="L4" t="n">
-        <v>206.8604605673276</v>
+        <v>206.8604605673298</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734852</v>
+        <v>630.5933313734854</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27163,10 +27163,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.52558716632</v>
       </c>
       <c r="K4" t="n">
-        <v>147.7289089925158</v>
+        <v>147.7289089925135</v>
       </c>
       <c r="L4" t="n">
-        <v>206.8604605673276</v>
+        <v>206.8604605673298</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734852</v>
+        <v>630.5933313734854</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,22 +27379,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>103.2410593682694</v>
       </c>
       <c r="H2" t="n">
-        <v>316.8938261062223</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27424,25 +27424,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666381</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>213.4438810562068</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>95.8854899594906</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27455,13 +27455,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -27473,13 +27473,13 @@
         <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>58.90455890409149</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265842</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27503,16 +27503,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.43289562846321</v>
+        <v>72.4328956284632</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>45.3589432639136</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920013</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8637684100909</v>
+        <v>38.33818124377097</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27521,10 +27521,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>18.24739803715764</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>40.66697151347873</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27534,19 +27534,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.0019352027142</v>
@@ -27555,13 +27555,13 @@
         <v>153.4336708318196</v>
       </c>
       <c r="I4" t="n">
-        <v>73.49127351643236</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825419</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402855</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27576,13 +27576,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709389</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.68604055159727</v>
+        <v>68.68604055159726</v>
       </c>
       <c r="R4" t="n">
-        <v>132.8223696106904</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>206.7802557954962</v>
@@ -27594,13 +27594,13 @@
         <v>286.2650814934503</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>250.1320414335526</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>81.94113950266495</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27631,10 +27631,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>311.6581577170896</v>
+        <v>311.6581577170897</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>105.7619939834402</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,10 +27661,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>44.96795805497936</v>
       </c>
       <c r="S5" t="n">
-        <v>147.1260835752736</v>
+        <v>147.1260835752738</v>
       </c>
       <c r="T5" t="n">
         <v>211.2059571334993</v>
@@ -27676,10 +27676,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>13.98647255857742</v>
+        <v>13.98647255857964</v>
       </c>
       <c r="X5" t="n">
-        <v>34.47660451963344</v>
+        <v>34.47660451963566</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27701,19 +27701,19 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>135.8902554169238</v>
       </c>
       <c r="H6" t="n">
-        <v>98.1999952657786</v>
+        <v>98.19999526577863</v>
       </c>
       <c r="I6" t="n">
-        <v>49.48683303354436</v>
+        <v>49.48683303354451</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,22 +27740,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>55.44979659362687</v>
+        <v>19.42372737846707</v>
       </c>
       <c r="S6" t="n">
-        <v>144.6894715620621</v>
+        <v>144.6894715620622</v>
       </c>
       <c r="T6" t="n">
-        <v>158.3494394668834</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8457727555612</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -27780,7 +27780,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27792,10 +27792,10 @@
         <v>151.3947926746767</v>
       </c>
       <c r="I7" t="n">
-        <v>118.8108916074426</v>
+        <v>118.8108916074427</v>
       </c>
       <c r="J7" t="n">
-        <v>40.85695726823336</v>
+        <v>40.8569572682336</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,13 +27816,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>49.48347745809697</v>
+        <v>49.48347745809725</v>
       </c>
       <c r="R7" t="n">
-        <v>122.5112332454258</v>
+        <v>122.5112332454259</v>
       </c>
       <c r="S7" t="n">
-        <v>202.7838044383971</v>
+        <v>202.7838044383972</v>
       </c>
       <c r="T7" t="n">
         <v>222.739844518876</v>
@@ -27834,13 +27834,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>77.77170927014234</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>156.2673269322182</v>
       </c>
     </row>
     <row r="8">
@@ -27850,19 +27850,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27871,7 +27871,7 @@
         <v>304.326804756183</v>
       </c>
       <c r="I8" t="n">
-        <v>78.16360657708302</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>67.39926198179106</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U8" t="n">
         <v>251.0710926941158</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>101.3181293822727</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27929,10 +27929,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -27944,13 +27944,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>16.02248763434261</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>31.66886087721433</v>
+        <v>31.66886087721431</v>
       </c>
       <c r="S9" t="n">
         <v>137.5750138932992</v>
@@ -27986,7 +27986,7 @@
         <v>192.7632183107638</v>
       </c>
       <c r="U9" t="n">
-        <v>132.6094260731189</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -28011,16 +28011,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>158.1610470731153</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.4515011109318</v>
@@ -28032,7 +28032,7 @@
         <v>109.1541654470835</v>
       </c>
       <c r="J10" t="n">
-        <v>18.15430933923926</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>22.59469128425553</v>
       </c>
       <c r="R10" t="n">
         <v>108.0728512656386</v>
@@ -28062,13 +28062,13 @@
         <v>197.1876907596159</v>
       </c>
       <c r="T10" t="n">
-        <v>221.3678187343026</v>
+        <v>19.50882239988894</v>
       </c>
       <c r="U10" t="n">
         <v>286.2350578157167</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29338,7 +29338,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
     <row r="32">
@@ -29812,7 +29812,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
     <row r="35">
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
     <row r="38">
@@ -30289,7 +30289,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="41">
@@ -30460,7 +30460,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="44">
@@ -30712,7 +30712,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -30763,7 +30763,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
   </sheetData>
@@ -31039,31 +31039,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077001</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954484</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043117</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J2" t="n">
         <v>187.1384950655543</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528638</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672891</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470272</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470023</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622679</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P2" t="n">
         <v>317.0679923244294</v>
@@ -31075,10 +31075,10 @@
         <v>138.5038187974683</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619221</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924577</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U2" t="n">
         <v>0.1763923428061601</v>
@@ -31121,7 +31121,7 @@
         <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575675</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
         <v>40.6178210959085</v>
@@ -31130,7 +31130,7 @@
         <v>111.4584056340083</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621736</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
         <v>256.1509851405032</v>
@@ -31139,7 +31139,7 @@
         <v>298.9161177975329</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829653</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O3" t="n">
         <v>280.6872536292673</v>
@@ -31148,19 +31148,19 @@
         <v>225.2762668628872</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936714</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550074</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S3" t="n">
         <v>21.9129264128882</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820368</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390161</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445817</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620014</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639161</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114192</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765068</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L4" t="n">
-        <v>147.043892027699</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682165</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604414</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
         <v>139.7968957592433</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820537</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784857</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647909</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147602</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
         <v>4.225915938181394</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061361</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.71613761979031</v>
+        <v>2.716137619790303</v>
       </c>
       <c r="H5" t="n">
-        <v>27.81664439867752</v>
+        <v>27.81664439867745</v>
       </c>
       <c r="I5" t="n">
-        <v>104.713895586966</v>
+        <v>104.7138955869657</v>
       </c>
       <c r="J5" t="n">
-        <v>230.5287853076781</v>
+        <v>230.5287853076774</v>
       </c>
       <c r="K5" t="n">
-        <v>345.502890753402</v>
+        <v>345.502890753401</v>
       </c>
       <c r="L5" t="n">
-        <v>428.6268874350598</v>
+        <v>428.6268874350586</v>
       </c>
       <c r="M5" t="n">
-        <v>476.9299998310057</v>
+        <v>476.9299998310044</v>
       </c>
       <c r="N5" t="n">
-        <v>484.647225843235</v>
+        <v>484.6472258432336</v>
       </c>
       <c r="O5" t="n">
-        <v>457.6386323864451</v>
+        <v>457.6386323864438</v>
       </c>
       <c r="P5" t="n">
-        <v>390.5839848978717</v>
+        <v>390.5839848978706</v>
       </c>
       <c r="Q5" t="n">
-        <v>293.3123063891311</v>
+        <v>293.3123063891302</v>
       </c>
       <c r="R5" t="n">
-        <v>170.6175797591532</v>
+        <v>170.6175797591528</v>
       </c>
       <c r="S5" t="n">
-        <v>61.89398601097177</v>
+        <v>61.89398601097159</v>
       </c>
       <c r="T5" t="n">
-        <v>11.88989243063209</v>
+        <v>11.88989243063206</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2172910095832248</v>
+        <v>0.2172910095832242</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.453261746286864</v>
+        <v>1.45326174628686</v>
       </c>
       <c r="H6" t="n">
-        <v>14.03544897071787</v>
+        <v>14.03544897071783</v>
       </c>
       <c r="I6" t="n">
-        <v>50.03554696645563</v>
+        <v>50.03554696645549</v>
       </c>
       <c r="J6" t="n">
-        <v>137.3013652489708</v>
+        <v>137.3013652489704</v>
       </c>
       <c r="K6" t="n">
-        <v>234.6699022501907</v>
+        <v>234.66990225019</v>
       </c>
       <c r="L6" t="n">
-        <v>315.5426436400492</v>
+        <v>315.5426436400483</v>
       </c>
       <c r="M6" t="n">
-        <v>368.2233819429479</v>
+        <v>368.2233819429468</v>
       </c>
       <c r="N6" t="n">
-        <v>377.9691591801086</v>
+        <v>377.9691591801075</v>
       </c>
       <c r="O6" t="n">
-        <v>345.7679383808049</v>
+        <v>345.7679383808039</v>
       </c>
       <c r="P6" t="n">
-        <v>277.5092539905153</v>
+        <v>277.5092539905145</v>
       </c>
       <c r="Q6" t="n">
-        <v>185.5075871225127</v>
+        <v>185.5075871225122</v>
       </c>
       <c r="R6" t="n">
-        <v>90.22970737033708</v>
+        <v>90.22970737033683</v>
       </c>
       <c r="S6" t="n">
-        <v>26.99369954177572</v>
+        <v>26.99369954177565</v>
       </c>
       <c r="T6" t="n">
-        <v>5.857664670340472</v>
+        <v>5.857664670340455</v>
       </c>
       <c r="U6" t="n">
-        <v>0.09560932541360952</v>
+        <v>0.09560932541360924</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.218365829860859</v>
+        <v>1.218365829860856</v>
       </c>
       <c r="H7" t="n">
-        <v>10.83237983276292</v>
+        <v>10.83237983276289</v>
       </c>
       <c r="I7" t="n">
-        <v>36.63958331981567</v>
+        <v>36.63958331981557</v>
       </c>
       <c r="J7" t="n">
-        <v>86.13846417116275</v>
+        <v>86.13846417116251</v>
       </c>
       <c r="K7" t="n">
-        <v>141.5519573238344</v>
+        <v>141.551957323834</v>
       </c>
       <c r="L7" t="n">
-        <v>181.1377707413136</v>
+        <v>181.1377707413131</v>
       </c>
       <c r="M7" t="n">
-        <v>190.984381857189</v>
+        <v>190.9843818571885</v>
       </c>
       <c r="N7" t="n">
-        <v>186.4432001277078</v>
+        <v>186.4432001277073</v>
       </c>
       <c r="O7" t="n">
-        <v>172.2104720243332</v>
+        <v>172.2104720243327</v>
       </c>
       <c r="P7" t="n">
-        <v>147.3558090951715</v>
+        <v>147.3558090951711</v>
       </c>
       <c r="Q7" t="n">
-        <v>102.0215241713489</v>
+        <v>102.0215241713486</v>
       </c>
       <c r="R7" t="n">
-        <v>54.78215813174372</v>
+        <v>54.78215813174356</v>
       </c>
       <c r="S7" t="n">
-        <v>21.23279359857515</v>
+        <v>21.23279359857509</v>
       </c>
       <c r="T7" t="n">
-        <v>5.205744909405489</v>
+        <v>5.205744909405474</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06645631799241059</v>
+        <v>0.0664563179924104</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31528,10 +31528,10 @@
         <v>436.5636098258711</v>
       </c>
       <c r="L8" t="n">
-        <v>541.5957615840425</v>
+        <v>541.5957615840426</v>
       </c>
       <c r="M8" t="n">
-        <v>602.6296390934777</v>
+        <v>602.6296390934779</v>
       </c>
       <c r="N8" t="n">
         <v>612.3808166839008</v>
@@ -31540,22 +31540,22 @@
         <v>578.2538401190903</v>
       </c>
       <c r="P8" t="n">
-        <v>493.5262741662297</v>
+        <v>493.5262741662298</v>
       </c>
       <c r="Q8" t="n">
-        <v>370.6176784928394</v>
+        <v>370.6176784928395</v>
       </c>
       <c r="R8" t="n">
         <v>215.5855378141319</v>
       </c>
       <c r="S8" t="n">
-        <v>78.20676087699489</v>
+        <v>78.20676087699491</v>
       </c>
       <c r="T8" t="n">
         <v>15.02359169452748</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2745602137206619</v>
+        <v>0.274560213720662</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31598,7 +31598,7 @@
         <v>17.73463097464133</v>
       </c>
       <c r="I9" t="n">
-        <v>63.22291242095114</v>
+        <v>63.22291242095115</v>
       </c>
       <c r="J9" t="n">
         <v>173.4885040076062</v>
@@ -31607,19 +31607,19 @@
         <v>296.5194861913577</v>
       </c>
       <c r="L9" t="n">
-        <v>398.7070419616797</v>
+        <v>398.7070419616798</v>
       </c>
       <c r="M9" t="n">
-        <v>465.2723121730377</v>
+        <v>465.2723121730378</v>
       </c>
       <c r="N9" t="n">
-        <v>477.5866858152842</v>
+        <v>477.5866858152843</v>
       </c>
       <c r="O9" t="n">
-        <v>436.8985133884504</v>
+        <v>436.8985133884505</v>
       </c>
       <c r="P9" t="n">
-        <v>350.6495746475631</v>
+        <v>350.6495746475632</v>
       </c>
       <c r="Q9" t="n">
         <v>234.3999545349506</v>
@@ -31628,10 +31628,10 @@
         <v>114.0106430867496</v>
       </c>
       <c r="S9" t="n">
-        <v>34.10815721053858</v>
+        <v>34.10815721053859</v>
       </c>
       <c r="T9" t="n">
-        <v>7.401510384057842</v>
+        <v>7.401510384057843</v>
       </c>
       <c r="U9" t="n">
         <v>0.1208081129062761</v>
@@ -31677,22 +31677,22 @@
         <v>13.68736114619435</v>
       </c>
       <c r="I10" t="n">
-        <v>46.29630948017474</v>
+        <v>46.29630948017475</v>
       </c>
       <c r="J10" t="n">
-        <v>108.8411121001568</v>
+        <v>108.8411121001569</v>
       </c>
       <c r="K10" t="n">
         <v>178.8593818490426</v>
       </c>
       <c r="L10" t="n">
-        <v>228.8784296368735</v>
+        <v>228.8784296368736</v>
       </c>
       <c r="M10" t="n">
-        <v>241.3202129282505</v>
+        <v>241.3202129282506</v>
       </c>
       <c r="N10" t="n">
-        <v>235.5821576420138</v>
+        <v>235.5821576420139</v>
       </c>
       <c r="O10" t="n">
         <v>217.5982526595396</v>
@@ -31704,13 +31704,13 @@
         <v>128.9103103451903</v>
       </c>
       <c r="R10" t="n">
-        <v>69.22054011153088</v>
+        <v>69.22054011153089</v>
       </c>
       <c r="S10" t="n">
         <v>26.82890727735639</v>
       </c>
       <c r="T10" t="n">
-        <v>6.577770693978874</v>
+        <v>6.577770693978875</v>
       </c>
       <c r="U10" t="n">
         <v>0.08397154077419852</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31841,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>339.9772972286967</v>
       </c>
       <c r="N12" t="n">
-        <v>405.6377363145776</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>377.6350660745956</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>359.7096985496632</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32315,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>339.9772972286971</v>
+        <v>339.9772972286967</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32552,37 +32552,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M21" t="n">
-        <v>377.6350660745956</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N21" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>369.1789913099988</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32783,7 +32783,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32795,19 +32795,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>573.8098963904297</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>340.4395077511235</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33020,13 +33020,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33038,13 +33038,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>225.4828684302377</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33257,22 +33257,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>270.9486956727256</v>
+        <v>650.2626573149953</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
@@ -33281,7 +33281,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33494,7 +33494,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33506,19 +33506,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>340.4395077511235</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33731,7 +33731,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33743,19 +33743,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>339.9772972286971</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33968,34 +33968,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>233.9389431948335</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067246</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34205,13 +34205,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34220,10 +34220,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>188.4731159523455</v>
+        <v>483.3274636075166</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
@@ -34442,10 +34442,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
@@ -34454,13 +34454,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>454.1257695262137</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>403.8524967138027</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214698</v>
@@ -34469,7 +34469,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868023</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788327</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973019</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197545</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504114</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405811</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656915984</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.7991677406597</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,7 +34778,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781463</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L3" t="n">
         <v>117.596605360629</v>
@@ -34787,16 +34787,16 @@
         <v>156.7820838755146</v>
       </c>
       <c r="N3" t="n">
-        <v>175.485825899632</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848228</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855691</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764993</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,16 +34860,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646075</v>
+        <v>12.15921574646077</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061149</v>
+        <v>16.11138312061152</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520823</v>
+        <v>23.66518529520826</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400495</v>
+        <v>1.340357307400524</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>49.48288078099179</v>
+        <v>49.48288078099114</v>
       </c>
       <c r="K5" t="n">
-        <v>125.4130397084215</v>
+        <v>125.4130397084205</v>
       </c>
       <c r="L5" t="n">
-        <v>192.8604724650726</v>
+        <v>192.8604724650713</v>
       </c>
       <c r="M5" t="n">
-        <v>246.583766603733</v>
+        <v>246.5837666037316</v>
       </c>
       <c r="N5" t="n">
-        <v>255.2341622466441</v>
+        <v>255.2341622466427</v>
       </c>
       <c r="O5" t="n">
-        <v>227.5404209647583</v>
+        <v>227.540420964757</v>
       </c>
       <c r="P5" t="n">
-        <v>159.3509891426021</v>
+        <v>159.3509891426011</v>
       </c>
       <c r="Q5" t="n">
-        <v>71.00661651468161</v>
+        <v>71.00661651468076</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>10.4637385823041</v>
+        <v>10.46373858230371</v>
       </c>
       <c r="K6" t="n">
-        <v>96.82846327583169</v>
+        <v>96.82846327583101</v>
       </c>
       <c r="L6" t="n">
-        <v>176.988263860175</v>
+        <v>176.9882638601741</v>
       </c>
       <c r="M6" t="n">
-        <v>226.0893480209296</v>
+        <v>226.0893480209285</v>
       </c>
       <c r="N6" t="n">
-        <v>246.6274470967753</v>
+        <v>246.6274470967742</v>
       </c>
       <c r="O6" t="n">
-        <v>203.1716939363604</v>
+        <v>203.1716939363594</v>
       </c>
       <c r="P6" t="n">
-        <v>143.5348465761851</v>
+        <v>143.5348465761843</v>
       </c>
       <c r="Q6" t="n">
-        <v>45.52581303649117</v>
+        <v>45.52581303649066</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>12.53869915329898</v>
+        <v>12.53869915329858</v>
       </c>
       <c r="L7" t="n">
-        <v>46.25309446007535</v>
+        <v>46.25309446007481</v>
       </c>
       <c r="M7" t="n">
-        <v>52.05859790958399</v>
+        <v>52.05859790958345</v>
       </c>
       <c r="N7" t="n">
-        <v>58.75765566247463</v>
+        <v>58.75765566247409</v>
       </c>
       <c r="O7" t="n">
-        <v>33.75393357249038</v>
+        <v>33.7539335724899</v>
       </c>
       <c r="P7" t="n">
-        <v>9.627805046023894</v>
+        <v>9.627805046023468</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,16 +35170,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>110.2410322142394</v>
+        <v>110.2410322142395</v>
       </c>
       <c r="K8" t="n">
-        <v>216.4737587808905</v>
+        <v>216.4737587808906</v>
       </c>
       <c r="L8" t="n">
-        <v>305.8293466140553</v>
+        <v>305.8293466140554</v>
       </c>
       <c r="M8" t="n">
-        <v>372.283405866205</v>
+        <v>372.2834058662052</v>
       </c>
       <c r="N8" t="n">
         <v>382.9677530873099</v>
@@ -35188,7 +35188,7 @@
         <v>348.1556286974036</v>
       </c>
       <c r="P8" t="n">
-        <v>262.2932784109601</v>
+        <v>262.2932784109602</v>
       </c>
       <c r="Q8" t="n">
         <v>148.31198861839</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>46.65087734093947</v>
+        <v>46.6508773409395</v>
       </c>
       <c r="K9" t="n">
         <v>158.6780472169987</v>
@@ -35258,7 +35258,7 @@
         <v>260.1526621818056</v>
       </c>
       <c r="M9" t="n">
-        <v>323.1382782510194</v>
+        <v>323.1382782510195</v>
       </c>
       <c r="N9" t="n">
         <v>346.2449737319509</v>
@@ -35270,7 +35270,7 @@
         <v>216.6751672332329</v>
       </c>
       <c r="Q9" t="n">
-        <v>94.41818044892904</v>
+        <v>94.41818044892906</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,19 +35331,19 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>49.84612367850721</v>
+        <v>49.84612367850724</v>
       </c>
       <c r="L10" t="n">
-        <v>93.99375335563525</v>
+        <v>93.99375335563528</v>
       </c>
       <c r="M10" t="n">
         <v>102.3944289806455</v>
       </c>
       <c r="N10" t="n">
-        <v>107.8966131767806</v>
+        <v>107.8966131767807</v>
       </c>
       <c r="O10" t="n">
-        <v>79.14171420769679</v>
+        <v>79.14171420769682</v>
       </c>
       <c r="P10" t="n">
         <v>48.46489236084162</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,22 +35492,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>197.8432633066783</v>
       </c>
       <c r="N12" t="n">
-        <v>274.2960242312443</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35729,25 +35729,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>235.5010321525773</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>228.3679864663299</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,22 +35966,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>197.8432633066788</v>
+        <v>197.8432633066783</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M21" t="n">
-        <v>235.5010321525773</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>226.5827468655544</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36443,19 +36443,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>431.6758624684114</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>197.843263306679</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36668,13 +36668,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36686,13 +36686,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>82.88662398579324</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36759,13 +36759,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M28" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N28" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O28" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P28" t="n">
         <v>319.9164207986647</v>
@@ -36905,22 +36905,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>128.8146617507074</v>
+        <v>508.128623392977</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
@@ -36929,7 +36929,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36996,13 +36996,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N31" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P31" t="n">
         <v>319.9164207986647</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37154,19 +37154,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>197.843263306679</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37227,19 +37227,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37391,19 +37391,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>197.8432633066788</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,25 +37464,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>91.80490927281522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K40" t="n">
         <v>288.6172359016746</v>
@@ -37719,7 +37719,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236318714</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37853,13 +37853,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37868,10 +37868,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>45.87687150790109</v>
+        <v>340.7312191630721</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38090,10 +38090,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
@@ -38102,13 +38102,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>311.9917356041954</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>272.5107846304694</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071395</v>
@@ -38117,7 +38117,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38193,7 +38193,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
